--- a/Past Exam Solutions/2024/Rasterisation 24.xlsx
+++ b/Past Exam Solutions/2024/Rasterisation 24.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\CG24\Past Exam Solutions\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\cg\Past Exam Solutions\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A8D7F3-E831-4ECA-AE3F-3E042CB635B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CAF34-C009-4D12-8FC2-3126B2ACE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{9573FAA5-6198-4DC2-81F9-939301CE759A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="1" xr2:uid="{9573FAA5-6198-4DC2-81F9-939301CE759A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eqn of Line and DDA" sheetId="1" r:id="rId1"/>
+    <sheet name="Breshenham" sheetId="2" r:id="rId2"/>
+    <sheet name="m&lt;0" sheetId="4" r:id="rId3"/>
+    <sheet name="m &gt; 1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>(</t>
   </si>
@@ -80,12 +83,57 @@
   <si>
     <t>Digital Differential Analyser</t>
   </si>
+  <si>
+    <t>dx=</t>
+  </si>
+  <si>
+    <t>dy=</t>
+  </si>
+  <si>
+    <t>dy-dx=</t>
+  </si>
+  <si>
+    <t>2(dy-dx)=</t>
+  </si>
+  <si>
+    <t>2dy=</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dy - dx = </t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>Swap (X,Y)</t>
+  </si>
+  <si>
+    <t>Swap backj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m = </t>
+  </si>
+  <si>
+    <t>&lt;0</t>
+  </si>
+  <si>
+    <t>Neg Y</t>
+  </si>
+  <si>
+    <t>NOTE NOT A LIVE/INTERACTIVE SHEET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +141,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +194,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,15 +526,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFACBF31-A765-40D5-B856-A84C226B3976}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="2.85546875" style="2"/>
+    <col min="1" max="3" width="2.85546875" style="2"/>
+    <col min="4" max="4" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="2.85546875" style="2"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.85546875" style="2"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -468,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -485,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -509,7 +595,7 @@
       </c>
       <c r="L4" s="2">
         <f>(D2-D1)/(B2-B1)</f>
-        <v>0.42857142857142855</v>
+        <v>-2.1428571428571428</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>6</v>
@@ -526,7 +612,7 @@
       </c>
       <c r="N7" s="2">
         <f>L4</f>
-        <v>0.42857142857142855</v>
+        <v>-2.1428571428571428</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>9</v>
@@ -536,7 +622,7 @@
       </c>
       <c r="Q7" s="2">
         <f>D1-L4*B1</f>
-        <v>3.7142857142857144</v>
+        <v>19.285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -580,383 +666,521 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N10" s="2">
         <f>B1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="2">
         <f>$N$7*N10+$Q$7</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R10" s="2">
         <f>ROUND(Q10,0)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W10" s="2">
         <f>B1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="2">
         <f>D1</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="2">
         <f>ROUND(Z10,0)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N11" s="2">
         <f>N10+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11:Q23" si="0">$N$7*N11+$Q$7</f>
-        <v>5.4285714285714288</v>
+        <f t="shared" ref="Q11:Q29" si="0">$N$7*N11+$Q$7</f>
+        <v>12.857142857142856</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11:R23" si="1">ROUND(Q11,0)</f>
-        <v>5</v>
+        <f t="shared" ref="R11:R29" si="1">ROUND(Q11,0)</f>
+        <v>13</v>
       </c>
       <c r="W11" s="2">
         <f>W10+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="2">
         <f>Z10+$L$4</f>
-        <v>5.4285714285714288</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" ref="AA11:AA24" si="2">ROUND(Z11,0)</f>
-        <v>5</v>
+        <f t="shared" ref="AA11:AA29" si="2">ROUND(Z11,0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N12" s="2">
-        <f t="shared" ref="N12:N21" si="3">N11+1</f>
-        <v>5</v>
+        <f t="shared" ref="N12:N29" si="3">N11+1</f>
+        <v>4</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>5.8571428571428577</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" ref="W12:W26" si="4">W11+1</f>
-        <v>5</v>
+        <f t="shared" ref="W12:W29" si="4">W11+1</f>
+        <v>4</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" ref="Z12:Z24" si="5">Z11+$L$4</f>
-        <v>5.8571428571428577</v>
+        <f t="shared" ref="Z12:Z29" si="5">Z11+$L$4</f>
+        <v>10.714285714285715</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N13" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>6.2857142857142856</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="5"/>
-        <v>6.2857142857142865</v>
+        <v>8.571428571428573</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N14" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>6.7142857142857144</v>
+        <v>6.428571428571427</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="5"/>
-        <v>6.7142857142857153</v>
+        <v>6.4285714285714306</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N15" s="2">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>7.1428571428571423</v>
+        <v>4.2857142857142847</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="5"/>
-        <v>7.1428571428571441</v>
+        <v>4.2857142857142883</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N16" s="2">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>7.5714285714285712</v>
+        <v>2.1428571428571423</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="5"/>
-        <v>7.571428571428573</v>
+        <v>2.1428571428571455</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N17" s="2">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="5"/>
-        <v>8.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N18" s="2">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>8.4285714285714288</v>
+        <v>-2.1428571428571423</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="5"/>
-        <v>8.4285714285714306</v>
+        <v>-2.1428571428571428</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N19" s="2">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>8.8571428571428577</v>
+        <v>-4.2857142857142847</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="5"/>
-        <v>8.8571428571428594</v>
+        <v>-4.2857142857142856</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="20" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>9.2857142857142847</v>
+        <v>-6.4285714285714306</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="5"/>
-        <v>9.2857142857142883</v>
+        <v>-6.4285714285714288</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="21" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N21" s="2">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>9.7142857142857153</v>
+        <v>-8.571428571428573</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="5"/>
-        <v>9.7142857142857171</v>
+        <v>-8.5714285714285712</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="22" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>3.7142857142857144</v>
+        <v>-10.714285714285715</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-11</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="5"/>
-        <v>10.142857142857146</v>
+        <v>-10.714285714285714</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="23" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>3.7142857142857144</v>
+        <v>-12.857142857142854</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="5"/>
-        <v>10.571428571428575</v>
+        <v>-12.857142857142856</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="24" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N24" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
       <c r="W24" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="5"/>
-        <v>11.000000000000004</v>
+        <v>-14.999999999999998</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="25" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N25" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="0"/>
+        <v>-17.142857142857146</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
       <c r="W25" s="2">
         <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="5"/>
+        <v>-17.142857142857142</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="2"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="26" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="Q26" s="2">
+        <f t="shared" si="0"/>
+        <v>-19.285714285714285</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
       <c r="W26" s="2">
         <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="5"/>
+        <v>-19.285714285714285</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="27" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <f t="shared" si="3"/>
         <v>19</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="0"/>
+        <v>-21.428571428571431</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="5"/>
+        <v>-21.428571428571427</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="2"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="28" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="0"/>
+        <v>-23.571428571428569</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="5"/>
+        <v>-23.571428571428569</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="29" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="0"/>
+        <v>-25.714285714285715</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="5"/>
+        <v>-25.714285714285712</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="2"/>
+        <v>-26</v>
       </c>
     </row>
   </sheetData>
@@ -967,4 +1191,1965 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00552F37-785D-450C-B850-AFFEC3912B71}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B2-B1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>D2-D1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B5-B4</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B6*2</f>
+        <v>-8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <f>B8-B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B5*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>B1</f>
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <f>D1</f>
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>A10+1</f>
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <f>IF(C10&gt;0, B10+1,B10)</f>
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
+        <f>IF(C10&gt;0,C10+$B$7,C10+$B$8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" ref="A12:A57" si="0">A11+1</f>
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" ref="B12:B57" si="1">IF(C11&gt;0, B11+1,B11)</f>
+        <v>32</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:C57" si="2">IF(C11&gt;0,C11+$B$7,C11+$B$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B33" s="5">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B34" s="5">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B35" s="5">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B36" s="5">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B37" s="5">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B38" s="5">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B39" s="5">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B41" s="5">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B43" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B44" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B45" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B46" s="5">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B47" s="5">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B48" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B49" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B50" s="5">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B51" s="5">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B52" s="5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B53" s="5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B54" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B55" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B56" s="5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B57" s="5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F415F-22A7-4703-8290-AA71BFC4DA11}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10">
+        <f>B6/B5</f>
+        <v>-0.75</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>-28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>-34</v>
+      </c>
+      <c r="E16" s="5">
+        <f>A16</f>
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <f>-B16</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>-33</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ref="E17:E24" si="0">A17</f>
+        <v>13</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:F24" si="1">-B17</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>-33</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>-32</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>-31</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>-30</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>-30</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>-29</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>-28</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1212DDBA-846F-4DEB-8DDF-B7AEAB4208DD}">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5">
+        <f>B6/11</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5">
+        <f>B14</f>
+        <v>34</v>
+      </c>
+      <c r="E14" s="5">
+        <f>A14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:D58" si="0">B15</f>
+        <v>34</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15:E58" si="1">A15</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <v>37</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>37</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <v>37</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>37</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
+        <v>39</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>40</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
+        <v>40</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
+        <v>40</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
+        <v>40</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
+        <v>41</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5">
+        <v>41</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5">
+        <v>42</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5">
+        <v>42</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5">
+        <v>42</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5">
+        <v>43</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5">
+        <v>43</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5">
+        <v>43</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5">
+        <v>43</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5">
+        <v>44</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5">
+        <v>44</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5">
+        <v>44</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5">
+        <v>44</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>